--- a/CELH.xlsx
+++ b/CELH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E68BF6-BBF2-4425-B645-48E5EC1E79D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077C241A-3995-4D31-993A-8189169B75E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33315" yWindow="1110" windowWidth="27405" windowHeight="19665" activeTab="1" xr2:uid="{199AB9C4-FD24-4AC4-AB86-6077BB40875F}"/>
+    <workbookView xWindow="-30975" yWindow="1335" windowWidth="27045" windowHeight="17700" xr2:uid="{199AB9C4-FD24-4AC4-AB86-6077BB40875F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -764,7 +764,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8100AAB6-5D05-4CC9-9199-6AA590F4929D}">
   <dimension ref="J2:L7"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -773,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="10:12" x14ac:dyDescent="0.2">
@@ -793,7 +795,7 @@
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>7700.3644410000006</v>
+        <v>6066.953802</v>
       </c>
     </row>
     <row r="5" spans="10:12" x14ac:dyDescent="0.2">
@@ -824,7 +826,7 @@
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>6797.1544410000006</v>
+        <v>5163.743802</v>
       </c>
     </row>
   </sheetData>
@@ -837,11 +839,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C357C31A-C92F-4AC3-83E6-1987F83B4153}">
   <dimension ref="A1:AH23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF2" sqref="AF2"/>
+      <selection pane="bottomRight" activeCell="AF15" sqref="AF15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1166,43 +1168,43 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4">
-        <f>+G7-G8</f>
+        <f t="shared" ref="G9:P9" si="1">+G7-G8</f>
         <v>53.894000000000005</v>
       </c>
       <c r="H9" s="4">
-        <f>+H7-H8</f>
+        <f t="shared" si="1"/>
         <v>59.319000000000017</v>
       </c>
       <c r="I9" s="4">
-        <f>+I7-I8</f>
+        <f t="shared" si="1"/>
         <v>78.650000000000006</v>
       </c>
       <c r="J9" s="4">
-        <f>+J7-J8</f>
+        <f t="shared" si="1"/>
         <v>79.007000000000005</v>
       </c>
       <c r="K9" s="4">
-        <f>+K7-K8</f>
+        <f t="shared" si="1"/>
         <v>113.81800000000001</v>
       </c>
       <c r="L9" s="4">
-        <f>+L7-L8</f>
+        <f t="shared" si="1"/>
         <v>158.99399999999997</v>
       </c>
       <c r="M9" s="4">
-        <f>+M7-M8</f>
+        <f t="shared" si="1"/>
         <v>194.08199999999999</v>
       </c>
       <c r="N9" s="4">
-        <f>+N7-N8</f>
+        <f t="shared" si="1"/>
         <v>166.245</v>
       </c>
       <c r="O9" s="4">
-        <f>+O7-O8</f>
+        <f t="shared" si="1"/>
         <v>162.82900000000004</v>
       </c>
       <c r="P9" s="4">
-        <f>+P7-P8</f>
+        <f t="shared" si="1"/>
         <v>209.09799999999998</v>
       </c>
       <c r="Q9" s="4"/>
@@ -1264,43 +1266,43 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4">
-        <f>+G9-G10</f>
+        <f t="shared" ref="G11:P11" si="2">+G9-G10</f>
         <v>10.116000000000007</v>
       </c>
       <c r="H11" s="4">
-        <f>+H9-H10</f>
+        <f t="shared" si="2"/>
         <v>12.430000000000014</v>
       </c>
       <c r="I11" s="4">
-        <f>+I9-I10</f>
+        <f t="shared" si="2"/>
         <v>78.650000000000006</v>
       </c>
       <c r="J11" s="4">
-        <f>+J9-J10</f>
+        <f t="shared" si="2"/>
         <v>-32.745999999999995</v>
       </c>
       <c r="K11" s="4">
-        <f>+K9-K10</f>
+        <f t="shared" si="2"/>
         <v>44.913000000000011</v>
       </c>
       <c r="L11" s="4">
-        <f>+L9-L10</f>
+        <f t="shared" si="2"/>
         <v>64.812999999999974</v>
       </c>
       <c r="M11" s="4">
-        <f>+M9-M10</f>
+        <f t="shared" si="2"/>
         <v>97.696999999999989</v>
       </c>
       <c r="N11" s="4">
-        <f>+N9-N10</f>
+        <f t="shared" si="2"/>
         <v>58.942999999999998</v>
       </c>
       <c r="O11" s="4">
-        <f>+O9-O10</f>
+        <f t="shared" si="2"/>
         <v>47.979000000000042</v>
       </c>
       <c r="P11" s="4">
-        <f>+P9-P10</f>
+        <f t="shared" si="2"/>
         <v>94.24799999999999</v>
       </c>
       <c r="Q11" s="4"/>
@@ -1365,43 +1367,43 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4">
-        <f>+G11+G12</f>
+        <f t="shared" ref="G13:P13" si="3">+G11+G12</f>
         <v>10.192000000000007</v>
       </c>
       <c r="H13" s="4">
-        <f>+H11+H12</f>
+        <f t="shared" si="3"/>
         <v>12.482000000000014</v>
       </c>
       <c r="I13" s="4">
-        <f>+I11+I12</f>
+        <f t="shared" si="3"/>
         <v>78.650000000000006</v>
       </c>
       <c r="J13" s="4">
-        <f>+J11+J12</f>
+        <f t="shared" si="3"/>
         <v>-28.846999999999994</v>
       </c>
       <c r="K13" s="4">
-        <f>+K11+K12</f>
+        <f t="shared" si="3"/>
         <v>49.719000000000008</v>
       </c>
       <c r="L13" s="4">
-        <f>+L11+L12</f>
+        <f t="shared" si="3"/>
         <v>69.426999999999978</v>
       </c>
       <c r="M13" s="4">
-        <f>+M11+M12</f>
+        <f t="shared" si="3"/>
         <v>104.71699999999998</v>
       </c>
       <c r="N13" s="4">
-        <f>+N11+N12</f>
+        <f t="shared" si="3"/>
         <v>67.777999999999992</v>
       </c>
       <c r="O13" s="4">
-        <f>+O11+O12</f>
+        <f t="shared" si="3"/>
         <v>58.362000000000045</v>
       </c>
       <c r="P13" s="4">
-        <f>+P11+P12</f>
+        <f t="shared" si="3"/>
         <v>104.63099999999999</v>
       </c>
       <c r="Q13" s="4"/>
@@ -1465,43 +1467,43 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4">
-        <f>+G13-G14</f>
+        <f t="shared" ref="G15:P15" si="4">+G13-G14</f>
         <v>6.3500000000000068</v>
       </c>
       <c r="H15" s="4">
-        <f>+H13-H14</f>
+        <f t="shared" si="4"/>
         <v>9.672000000000013</v>
       </c>
       <c r="I15" s="4">
-        <f>+I13-I14</f>
+        <f t="shared" si="4"/>
         <v>78.650000000000006</v>
       </c>
       <c r="J15" s="4">
-        <f>+J13-J14</f>
+        <f t="shared" si="4"/>
         <v>-21.811999999999994</v>
       </c>
       <c r="K15" s="4">
-        <f>+K13-K14</f>
+        <f t="shared" si="4"/>
         <v>41.182000000000009</v>
       </c>
       <c r="L15" s="4">
-        <f>+L13-L14</f>
+        <f t="shared" si="4"/>
         <v>51.48099999999998</v>
       </c>
       <c r="M15" s="4">
-        <f>+M13-M14</f>
+        <f t="shared" si="4"/>
         <v>70.505999999999986</v>
       </c>
       <c r="N15" s="4">
-        <f>+N13-N14</f>
+        <f t="shared" si="4"/>
         <v>50.108999999999995</v>
       </c>
       <c r="O15" s="4">
-        <f>+O13-O14</f>
+        <f t="shared" si="4"/>
         <v>33.514000000000046</v>
       </c>
       <c r="P15" s="4">
-        <f>+P13-P14</f>
+        <f t="shared" si="4"/>
         <v>79.782999999999987</v>
       </c>
       <c r="Q15" s="4"/>
@@ -1520,43 +1522,43 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5">
-        <f>+G15/G17</f>
+        <f t="shared" ref="G16:P16" si="5">+G15/G17</f>
         <v>8.1109734445452192E-2</v>
       </c>
       <c r="H16" s="5">
-        <f>+H15/H17</f>
+        <f t="shared" si="5"/>
         <v>0.12341142244679239</v>
       </c>
       <c r="I16" s="5">
-        <f>+I15/I17</f>
+        <f t="shared" si="5"/>
         <v>1.003547185219211</v>
       </c>
       <c r="J16" s="5">
-        <f>+J15/J17</f>
+        <f t="shared" si="5"/>
         <v>-0.28777244181751005</v>
       </c>
       <c r="K16" s="5">
-        <f>+K15/K17</f>
+        <f t="shared" si="5"/>
         <v>0.17429542443826532</v>
       </c>
       <c r="L16" s="5" t="e">
-        <f>+L15/L17</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M16" s="5">
-        <f>+M15/M17</f>
+        <f t="shared" si="5"/>
         <v>0.89145414775385301</v>
       </c>
       <c r="N16" s="5" t="e">
-        <f>+N15/N17</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O16" s="5">
-        <f>+O15/O17</f>
+        <f t="shared" si="5"/>
         <v>0.14109791472825808</v>
       </c>
       <c r="P16" s="5">
-        <f>+P15/P17</f>
+        <f t="shared" si="5"/>
         <v>0.341910960211396</v>
       </c>
       <c r="AF16" s="1">
@@ -1616,35 +1618,35 @@
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11">
-        <f>+K7/G7-1</f>
+        <f t="shared" ref="K20:Q20" si="6">+K7/G7-1</f>
         <v>0.94874351515878508</v>
       </c>
       <c r="L20" s="11">
-        <f>+L7/H7-1</f>
+        <f t="shared" si="6"/>
         <v>1.1158485910920657</v>
       </c>
       <c r="M20" s="11">
-        <f>+M7/I7-1</f>
+        <f t="shared" si="6"/>
         <v>1.0440464743164055</v>
       </c>
       <c r="N20" s="11">
-        <f>+N7/J7-1</f>
+        <f t="shared" si="6"/>
         <v>0.95227686498392927</v>
       </c>
       <c r="O20" s="11">
-        <f>+O7/K7-1</f>
+        <f t="shared" si="6"/>
         <v>0.36842874674442849</v>
       </c>
       <c r="P20" s="11">
-        <f>+P7/L7-1</f>
+        <f t="shared" si="6"/>
         <v>0.23350098041321576</v>
       </c>
       <c r="Q20" s="11">
-        <f>+Q7/M7-1</f>
+        <f t="shared" si="6"/>
         <v>-0.16778642103977304</v>
       </c>
       <c r="R20" s="11">
-        <f t="shared" ref="R20" si="1">+R7/N7-1</f>
+        <f t="shared" ref="R20" si="7">+R7/N7-1</f>
         <v>0.19999999999999996</v>
       </c>
     </row>
@@ -1653,51 +1655,51 @@
         <v>34</v>
       </c>
       <c r="G21" s="8">
-        <f>+G9/G7</f>
+        <f t="shared" ref="G21:R21" si="8">+G9/G7</f>
         <v>0.40403934386901375</v>
       </c>
       <c r="H21" s="8">
-        <f>+H9/H7</f>
+        <f t="shared" si="8"/>
         <v>0.38513829372808733</v>
       </c>
       <c r="I21" s="8">
-        <f>+I9/I7</f>
+        <f t="shared" si="8"/>
         <v>0.41783321734233636</v>
       </c>
       <c r="J21" s="8">
-        <f>+J9/J7</f>
+        <f t="shared" si="8"/>
         <v>0.44394933806837339</v>
       </c>
       <c r="K21" s="8">
-        <f>+K9/K7</f>
+        <f t="shared" si="8"/>
         <v>0.43786426815522106</v>
       </c>
       <c r="L21" s="8">
-        <f>+L9/L7</f>
+        <f t="shared" si="8"/>
         <v>0.48788675690355121</v>
       </c>
       <c r="M21" s="8">
-        <f>+M9/M7</f>
+        <f t="shared" si="8"/>
         <v>0.50442746980561759</v>
       </c>
       <c r="N21" s="8">
-        <f>+N9/N7</f>
+        <f t="shared" si="8"/>
         <v>0.4784923798696159</v>
       </c>
       <c r="O21" s="8">
-        <f>+O9/O7</f>
+        <f t="shared" si="8"/>
         <v>0.45776029777233018</v>
       </c>
       <c r="P21" s="8">
-        <f>+P9/P7</f>
+        <f t="shared" si="8"/>
         <v>0.52017403980824772</v>
       </c>
       <c r="Q21" s="8">
-        <f>+Q9/Q7</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R21" s="8">
-        <f>+R9/R7</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1706,31 +1708,31 @@
         <v>36</v>
       </c>
       <c r="I22" s="8">
-        <f t="shared" ref="I22:P22" si="2">+I10/I7</f>
+        <f t="shared" ref="I22:O22" si="9">+I10/I7</f>
         <v>0</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.6279528443954957</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.26508142294923037</v>
       </c>
       <c r="L22" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.28900249476038947</v>
       </c>
       <c r="M22" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.25050876267358357</v>
       </c>
       <c r="N22" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.30884050254004347</v>
       </c>
       <c r="O22" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.32287719140418542</v>
       </c>
       <c r="P22" s="8">
@@ -1747,27 +1749,27 @@
         <v>-0.18400350632712231</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" ref="K23:P23" si="3">K11/K7</f>
+        <f t="shared" ref="K23:P23" si="10">K11/K7</f>
         <v>0.17278284520599066</v>
       </c>
       <c r="L23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0.19888426214316174</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0.25391870713203396</v>
       </c>
       <c r="N23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0.16965187732957243</v>
       </c>
       <c r="O23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0.13488310636814477</v>
       </c>
       <c r="P23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0.23446117563940225</v>
       </c>
     </row>

--- a/CELH.xlsx
+++ b/CELH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077C241A-3995-4D31-993A-8189169B75E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3711293-3159-49F5-AF83-BC37A910B948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30975" yWindow="1335" windowWidth="27045" windowHeight="17700" xr2:uid="{199AB9C4-FD24-4AC4-AB86-6077BB40875F}"/>
+    <workbookView xWindow="-37455" yWindow="360" windowWidth="33855" windowHeight="14220" xr2:uid="{199AB9C4-FD24-4AC4-AB86-6077BB40875F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={0E5BA313-BB9D-4AD2-912F-E832DDE85C4B}</author>
+  </authors>
+  <commentList>
+    <comment ref="Q7" authorId="0" shapeId="0" xr:uid="{0E5BA313-BB9D-4AD2-912F-E832DDE85C4B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Impacted revenue by 124m</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
   <si>
     <t>Price</t>
   </si>
@@ -154,13 +172,97 @@
   </si>
   <si>
     <t>Red Bull</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>OLTA</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>Deferred Costs</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>DTA</t>
+  </si>
+  <si>
+    <t>PPE</t>
+  </si>
+  <si>
+    <t>Prepaids</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Note Receivable</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Preferred Stock</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>DTL</t>
+  </si>
+  <si>
+    <t>Leases</t>
+  </si>
+  <si>
+    <t>OCL</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>Promotional Allowance</t>
+  </si>
+  <si>
+    <t>Accrued</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>CapEx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -172,6 +274,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -294,16 +402,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>54428</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>32656</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>54428</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>141513</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>32656</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>75198</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -318,8 +426,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9971314" y="0"/>
-          <a:ext cx="0" cy="6019799"/>
+          <a:off x="10590367" y="0"/>
+          <a:ext cx="0" cy="10342145"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -344,65 +452,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>48986</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Connector 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AEA635E-E5CE-4A9E-AE34-8458BB9EC3A5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7505700" y="48986"/>
-          <a:ext cx="0" cy="6019799"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>59871</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>59871</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>141513</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -443,6 +501,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{5837A988-848F-485E-9C74-41E55339D783}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -760,12 +824,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="Q7" dT="2025-02-10T13:43:12.61" personId="{5837A988-848F-485E-9C74-41E55339D783}" id="{0E5BA313-BB9D-4AD2-912F-E832DDE85C4B}">
+    <text>Impacted revenue by 124m</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8100AAB6-5D05-4CC9-9199-6AA590F4929D}">
-  <dimension ref="J2:L7"/>
+  <dimension ref="J2:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -775,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>26</v>
+        <v>22.56</v>
       </c>
     </row>
     <row r="3" spans="10:12" x14ac:dyDescent="0.2">
@@ -783,10 +855,10 @@
         <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>233.34437700000001</v>
+        <v>235.031452</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="10:12" x14ac:dyDescent="0.2">
@@ -795,7 +867,7 @@
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>6066.953802</v>
+        <v>5302.3095571200001</v>
       </c>
     </row>
     <row r="5" spans="10:12" x14ac:dyDescent="0.2">
@@ -803,10 +875,10 @@
         <v>3</v>
       </c>
       <c r="K5" s="2">
-        <v>903.21</v>
+        <v>904</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="10:12" x14ac:dyDescent="0.2">
@@ -817,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="10:12" x14ac:dyDescent="0.2">
@@ -826,8 +898,11 @@
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>5163.743802</v>
-      </c>
+        <v>4398.3095571200001</v>
+      </c>
+    </row>
+    <row r="8" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="K8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -836,29 +911,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C357C31A-C92F-4AC3-83E6-1987F83B4153}">
-  <dimension ref="A1:AH23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C357C31A-C92F-4AC3-83E6-1987F83B4153}">
+  <dimension ref="A1:AL52"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="N21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF15" sqref="AF15"/>
+      <selection pane="bottomRight" activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="9.140625" style="3"/>
+    <col min="3" max="22" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>30</v>
       </c>
@@ -907,63 +982,75 @@
       <c r="R2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="U2">
+      <c r="S2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2">
         <v>2015</v>
       </c>
-      <c r="V2">
-        <f>+U2+1</f>
+      <c r="Z2">
+        <f>+Y2+1</f>
         <v>2016</v>
       </c>
-      <c r="W2">
-        <f t="shared" ref="W2:AH2" si="0">+V2+1</f>
+      <c r="AA2">
+        <f t="shared" ref="AA2:AL2" si="0">+Z2+1</f>
         <v>2017</v>
       </c>
-      <c r="X2">
+      <c r="AB2">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="Y2">
+      <c r="AC2">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="Z2">
+      <c r="AD2">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="AA2">
+      <c r="AE2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="AB2">
+      <c r="AF2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AC2">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AD2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AE2">
+      <c r="AI2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AF2">
+      <c r="AJ2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AG2">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AH2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
     </row>
-    <row r="3" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
@@ -983,35 +1070,39 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
-      <c r="U3" s="2">
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="Y3" s="2">
         <v>5900</v>
       </c>
-      <c r="V3" s="2">
+      <c r="Z3" s="2">
         <v>6030</v>
       </c>
-      <c r="W3" s="2">
+      <c r="AA3" s="2">
         <v>6280</v>
       </c>
-      <c r="X3" s="2">
+      <c r="AB3" s="2">
         <v>5540</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="AC3" s="2">
         <v>6070</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="AD3" s="2">
         <v>7160</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AE3" s="2">
         <v>7820</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AF3" s="2">
         <v>9680</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AG3" s="2">
         <v>10550</v>
       </c>
     </row>
-    <row r="4" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>35</v>
       </c>
@@ -1031,23 +1122,27 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="Y4" s="2">
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="AC4" s="2">
         <v>4200.8190000000004</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="AD4" s="2">
         <v>4598.6379999999999</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AE4" s="2">
         <v>5541.3519999999999</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AF4" s="2">
         <v>6311.05</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AG4" s="2">
         <v>7140.027</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
@@ -1086,35 +1181,51 @@
         <v>401.97699999999998</v>
       </c>
       <c r="Q7" s="7">
-        <f>154*1.3+120</f>
-        <v>320.20000000000005</v>
+        <f>265.748</f>
+        <v>265.74799999999999</v>
       </c>
       <c r="R7" s="7">
-        <f>+N7*1.2</f>
+        <f>+N7*1</f>
+        <v>347.435</v>
+      </c>
+      <c r="S7" s="7">
+        <f>+O7*1.1</f>
+        <v>391.27880000000005</v>
+      </c>
+      <c r="T7" s="7">
+        <f>+P7*1.1</f>
+        <v>442.17470000000003</v>
+      </c>
+      <c r="U7" s="7">
+        <f>+Q7*1.2</f>
+        <v>318.89759999999995</v>
+      </c>
+      <c r="V7" s="7">
+        <f>+R7*1.2</f>
         <v>416.92199999999997</v>
       </c>
-      <c r="AB7" s="6">
+      <c r="AF7" s="6">
         <f>SUM(G7:J7)</f>
         <v>653.60500000000002</v>
       </c>
-      <c r="AC7" s="6">
+      <c r="AG7" s="6">
         <f>SUM(K7:N7)</f>
         <v>1318.0139999999999</v>
       </c>
-      <c r="AD7" s="6">
+      <c r="AH7" s="6">
         <f>SUM(O7:R7)</f>
-        <v>1494.807</v>
-      </c>
-      <c r="AE7" s="6">
-        <f>+AD7*1.2</f>
-        <v>1793.7683999999999</v>
-      </c>
-      <c r="AF7" s="6">
-        <f>+AE7*1.2</f>
-        <v>2152.5220799999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1370.8679999999999</v>
+      </c>
+      <c r="AI7" s="6">
+        <f>+AH7*1.2</f>
+        <v>1645.0415999999998</v>
+      </c>
+      <c r="AJ7" s="6">
+        <f>+AI7*1.2</f>
+        <v>1974.0499199999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
@@ -1152,14 +1263,35 @@
       <c r="P8" s="4">
         <v>192.87899999999999</v>
       </c>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="AF8" s="2">
-        <f>+AF7-AF9</f>
-        <v>1033.2105983999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q8" s="4">
+        <v>143.51900000000001</v>
+      </c>
+      <c r="R8" s="4">
+        <f>+R7-R9</f>
+        <v>173.7175</v>
+      </c>
+      <c r="S8" s="4">
+        <f>+S7-S9</f>
+        <v>195.63940000000002</v>
+      </c>
+      <c r="T8" s="4">
+        <f>+T7-T9</f>
+        <v>221.08735000000001</v>
+      </c>
+      <c r="U8" s="4">
+        <f>+U7-U9</f>
+        <v>159.44879999999998</v>
+      </c>
+      <c r="V8" s="4">
+        <f>+V7-V9</f>
+        <v>208.46099999999998</v>
+      </c>
+      <c r="AJ8" s="2">
+        <f>+AJ7-AJ9</f>
+        <v>947.54396159999988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1207,14 +1339,36 @@
         <f t="shared" si="1"/>
         <v>209.09799999999998</v>
       </c>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="AF9" s="2">
-        <f>+AF7*0.52</f>
-        <v>1119.3114816</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q9" s="4">
+        <f>+Q7-Q8</f>
+        <v>122.22899999999998</v>
+      </c>
+      <c r="R9" s="4">
+        <f>+R7*0.5</f>
+        <v>173.7175</v>
+      </c>
+      <c r="S9" s="4">
+        <f>+S7*0.5</f>
+        <v>195.63940000000002</v>
+      </c>
+      <c r="T9" s="4">
+        <f t="shared" ref="T9:V9" si="2">+T7*0.5</f>
+        <v>221.08735000000001</v>
+      </c>
+      <c r="U9" s="4">
+        <f t="shared" si="2"/>
+        <v>159.44879999999998</v>
+      </c>
+      <c r="V9" s="4">
+        <f t="shared" si="2"/>
+        <v>208.46099999999998</v>
+      </c>
+      <c r="AJ9" s="2">
+        <f>+AJ7*0.52</f>
+        <v>1026.5059583999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1250,14 +1404,35 @@
       <c r="P10" s="4">
         <v>114.85</v>
       </c>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="AF10" s="2">
-        <f>+AF7*0.25</f>
-        <v>538.13051999999993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q10" s="4">
+        <v>125.443</v>
+      </c>
+      <c r="R10" s="4">
+        <f>+N10</f>
+        <v>107.30200000000001</v>
+      </c>
+      <c r="S10" s="4">
+        <f>+O10</f>
+        <v>114.85</v>
+      </c>
+      <c r="T10" s="4">
+        <f>+P10</f>
+        <v>114.85</v>
+      </c>
+      <c r="U10" s="4">
+        <f>+Q10</f>
+        <v>125.443</v>
+      </c>
+      <c r="V10" s="4">
+        <f>+R10</f>
+        <v>107.30200000000001</v>
+      </c>
+      <c r="AJ10" s="2">
+        <f>+AJ7*0.25</f>
+        <v>493.51247999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1266,53 +1441,75 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4">
-        <f t="shared" ref="G11:P11" si="2">+G9-G10</f>
+        <f t="shared" ref="G11:V11" si="3">+G9-G10</f>
         <v>10.116000000000007</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.430000000000014</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>78.650000000000006</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-32.745999999999995</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44.913000000000011</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>64.812999999999974</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>97.696999999999989</v>
       </c>
       <c r="N11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58.942999999999998</v>
       </c>
       <c r="O11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47.979000000000042</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>94.24799999999999</v>
       </c>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="AF11" s="2">
-        <f>+AF9-AF10</f>
-        <v>581.18096160000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q11" s="4">
+        <f t="shared" si="3"/>
+        <v>-3.2140000000000128</v>
+      </c>
+      <c r="R11" s="4">
+        <f t="shared" si="3"/>
+        <v>66.415499999999994</v>
+      </c>
+      <c r="S11" s="4">
+        <f t="shared" si="3"/>
+        <v>80.789400000000029</v>
+      </c>
+      <c r="T11" s="4">
+        <f t="shared" si="3"/>
+        <v>106.23735000000002</v>
+      </c>
+      <c r="U11" s="4">
+        <f t="shared" si="3"/>
+        <v>34.005799999999979</v>
+      </c>
+      <c r="V11" s="4">
+        <f t="shared" si="3"/>
+        <v>101.15899999999998</v>
+      </c>
+      <c r="AJ11" s="2">
+        <f>+AJ9-AJ10</f>
+        <v>532.99347839999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
@@ -1355,10 +1552,26 @@
         <f>10.647-0.264</f>
         <v>10.383000000000001</v>
       </c>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-    </row>
-    <row r="13" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q12" s="4">
+        <v>11.112</v>
+      </c>
+      <c r="R12" s="4">
+        <v>11.112</v>
+      </c>
+      <c r="S12" s="4">
+        <v>11.112</v>
+      </c>
+      <c r="T12" s="4">
+        <v>11.112</v>
+      </c>
+      <c r="U12" s="4">
+        <v>11.112</v>
+      </c>
+      <c r="V12" s="4">
+        <v>11.112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1367,53 +1580,75 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4">
-        <f t="shared" ref="G13:P13" si="3">+G11+G12</f>
+        <f t="shared" ref="G13:V13" si="4">+G11+G12</f>
         <v>10.192000000000007</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.482000000000014</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>78.650000000000006</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-28.846999999999994</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49.719000000000008</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>69.426999999999978</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>104.71699999999998</v>
       </c>
       <c r="N13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>67.777999999999992</v>
       </c>
       <c r="O13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58.362000000000045</v>
       </c>
       <c r="P13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>104.63099999999999</v>
       </c>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="AF13" s="2">
-        <f>+AF11+AF12</f>
-        <v>581.18096160000005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q13" s="4">
+        <f t="shared" si="4"/>
+        <v>7.8979999999999873</v>
+      </c>
+      <c r="R13" s="4">
+        <f t="shared" si="4"/>
+        <v>77.527499999999989</v>
+      </c>
+      <c r="S13" s="4">
+        <f t="shared" si="4"/>
+        <v>91.901400000000024</v>
+      </c>
+      <c r="T13" s="4">
+        <f t="shared" si="4"/>
+        <v>117.34935000000002</v>
+      </c>
+      <c r="U13" s="4">
+        <f t="shared" si="4"/>
+        <v>45.117799999999981</v>
+      </c>
+      <c r="V13" s="4">
+        <f t="shared" si="4"/>
+        <v>112.27099999999997</v>
+      </c>
+      <c r="AJ13" s="2">
+        <f>+AJ11+AJ12</f>
+        <v>532.99347839999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1451,14 +1686,35 @@
       <c r="P14" s="4">
         <v>24.847999999999999</v>
       </c>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="AF14" s="2">
-        <f>+AF13*0.15</f>
-        <v>87.177144240000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q14" s="4">
+        <v>1.819</v>
+      </c>
+      <c r="R14" s="4">
+        <f>+R13*0.1</f>
+        <v>7.7527499999999989</v>
+      </c>
+      <c r="S14" s="4">
+        <f t="shared" ref="S14:V14" si="5">+S13*0.1</f>
+        <v>9.1901400000000031</v>
+      </c>
+      <c r="T14" s="4">
+        <f t="shared" si="5"/>
+        <v>11.734935000000002</v>
+      </c>
+      <c r="U14" s="4">
+        <f t="shared" si="5"/>
+        <v>4.5117799999999981</v>
+      </c>
+      <c r="V14" s="4">
+        <f t="shared" si="5"/>
+        <v>11.227099999999998</v>
+      </c>
+      <c r="AJ14" s="2">
+        <f>+AJ13*0.15</f>
+        <v>79.949021759999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1467,53 +1723,75 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4">
-        <f t="shared" ref="G15:P15" si="4">+G13-G14</f>
+        <f t="shared" ref="G15:V15" si="6">+G13-G14</f>
         <v>6.3500000000000068</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.672000000000013</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>78.650000000000006</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-21.811999999999994</v>
       </c>
       <c r="K15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>41.182000000000009</v>
       </c>
       <c r="L15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>51.48099999999998</v>
       </c>
       <c r="M15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>70.505999999999986</v>
       </c>
       <c r="N15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>50.108999999999995</v>
       </c>
       <c r="O15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>33.514000000000046</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>79.782999999999987</v>
       </c>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="AF15" s="2">
-        <f>+AF13-AF14</f>
-        <v>494.00381736000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="Q15" s="4">
+        <f t="shared" si="6"/>
+        <v>6.0789999999999873</v>
+      </c>
+      <c r="R15" s="4">
+        <f t="shared" si="6"/>
+        <v>69.774749999999983</v>
+      </c>
+      <c r="S15" s="4">
+        <f t="shared" si="6"/>
+        <v>82.711260000000024</v>
+      </c>
+      <c r="T15" s="4">
+        <f t="shared" si="6"/>
+        <v>105.61441500000001</v>
+      </c>
+      <c r="U15" s="4">
+        <f t="shared" si="6"/>
+        <v>40.606019999999987</v>
+      </c>
+      <c r="V15" s="4">
+        <f t="shared" si="6"/>
+        <v>101.04389999999998</v>
+      </c>
+      <c r="AJ15" s="2">
+        <f>+AJ13-AJ14</f>
+        <v>453.04445663999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
@@ -1522,51 +1800,75 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5">
-        <f t="shared" ref="G16:P16" si="5">+G15/G17</f>
+        <f t="shared" ref="G16:V16" si="7">+G15/G17</f>
         <v>8.1109734445452192E-2</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.12341142244679239</v>
       </c>
       <c r="I16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.003547185219211</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.28777244181751005</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.17429542443826532</v>
       </c>
       <c r="L16" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.89145414775385301</v>
       </c>
       <c r="N16" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.14109791472825808</v>
       </c>
       <c r="P16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.341910960211396</v>
       </c>
-      <c r="AF16" s="1">
-        <f>AF15/AF17</f>
-        <v>2.117059016853875</v>
-      </c>
-    </row>
-    <row r="17" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="Q16" s="5">
+        <f t="shared" si="7"/>
+        <v>2.6012426400109489E-2</v>
+      </c>
+      <c r="R16" s="5">
+        <f t="shared" si="7"/>
+        <v>0.29857057887169647</v>
+      </c>
+      <c r="S16" s="5">
+        <f t="shared" si="7"/>
+        <v>0.35392672531836245</v>
+      </c>
+      <c r="T16" s="5">
+        <f t="shared" si="7"/>
+        <v>0.45193077759140082</v>
+      </c>
+      <c r="U16" s="5">
+        <f t="shared" si="7"/>
+        <v>0.17375573394495408</v>
+      </c>
+      <c r="V16" s="5">
+        <f t="shared" si="7"/>
+        <v>0.43237325414213329</v>
+      </c>
+      <c r="AJ16" s="1">
+        <f>AJ15/AJ17</f>
+        <v>1.9415272074029877</v>
+      </c>
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
@@ -1600,12 +1902,35 @@
       <c r="P17" s="4">
         <v>233.34437700000001</v>
       </c>
-      <c r="AF17" s="2">
+      <c r="Q17" s="4">
+        <v>233.696</v>
+      </c>
+      <c r="R17" s="4">
+        <f>+Q17</f>
+        <v>233.696</v>
+      </c>
+      <c r="S17" s="4">
+        <f>+R17</f>
+        <v>233.696</v>
+      </c>
+      <c r="T17" s="4">
+        <f t="shared" ref="T17:V17" si="8">+S17</f>
+        <v>233.696</v>
+      </c>
+      <c r="U17" s="4">
+        <f t="shared" si="8"/>
+        <v>233.696</v>
+      </c>
+      <c r="V17" s="4">
+        <f t="shared" si="8"/>
+        <v>233.696</v>
+      </c>
+      <c r="AJ17" s="2">
         <f>AVERAGE(P17)</f>
         <v>233.34437700000001</v>
       </c>
     </row>
-    <row r="20" spans="2:32" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
         <v>25</v>
       </c>
@@ -1618,121 +1943,141 @@
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11">
-        <f t="shared" ref="K20:Q20" si="6">+K7/G7-1</f>
+        <f t="shared" ref="K20:V20" si="9">+K7/G7-1</f>
         <v>0.94874351515878508</v>
       </c>
       <c r="L20" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1158485910920657</v>
       </c>
       <c r="M20" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0440464743164055</v>
       </c>
       <c r="N20" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.95227686498392927</v>
       </c>
       <c r="O20" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.36842874674442849</v>
       </c>
       <c r="P20" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.23350098041321576</v>
       </c>
       <c r="Q20" s="11">
-        <f t="shared" si="6"/>
-        <v>-0.16778642103977304</v>
+        <f t="shared" si="9"/>
+        <v>-0.30930951223759418</v>
       </c>
       <c r="R20" s="11">
-        <f t="shared" ref="R20" si="7">+R7/N7-1</f>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="11">
+        <f t="shared" si="9"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="T20" s="11">
+        <f t="shared" si="9"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="U20" s="11">
+        <f t="shared" si="9"/>
         <v>0.19999999999999996</v>
       </c>
-    </row>
-    <row r="21" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="V20" s="11">
+        <f t="shared" si="9"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G21" s="8">
-        <f t="shared" ref="G21:R21" si="8">+G9/G7</f>
+        <f t="shared" ref="G21:R21" si="10">+G9/G7</f>
         <v>0.40403934386901375</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.38513829372808733</v>
       </c>
       <c r="I21" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.41783321734233636</v>
       </c>
       <c r="J21" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.44394933806837339</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.43786426815522106</v>
       </c>
       <c r="L21" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.48788675690355121</v>
       </c>
       <c r="M21" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.50442746980561759</v>
       </c>
       <c r="N21" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.4784923798696159</v>
       </c>
       <c r="O21" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.45776029777233018</v>
       </c>
       <c r="P21" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.52017403980824772</v>
       </c>
       <c r="Q21" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>0.45994325451179308</v>
       </c>
       <c r="R21" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:32" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+    </row>
+    <row r="22" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>36</v>
       </c>
       <c r="I22" s="8">
-        <f t="shared" ref="I22:O22" si="9">+I10/I7</f>
+        <f t="shared" ref="I22:O22" si="11">+I10/I7</f>
         <v>0</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.6279528443954957</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.26508142294923037</v>
       </c>
       <c r="L22" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.28900249476038947</v>
       </c>
       <c r="M22" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.25050876267358357</v>
       </c>
       <c r="N22" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.30884050254004347</v>
       </c>
       <c r="O22" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.32287719140418542</v>
       </c>
       <c r="P22" s="8">
@@ -1740,7 +2085,7 @@
         <v>0.2857128641688455</v>
       </c>
     </row>
-    <row r="23" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>37</v>
       </c>
@@ -1749,32 +2094,745 @@
         <v>-0.18400350632712231</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" ref="K23:P23" si="10">K11/K7</f>
+        <f t="shared" ref="K23:P23" si="12">K11/K7</f>
         <v>0.17278284520599066</v>
       </c>
       <c r="L23" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.19888426214316174</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.25391870713203396</v>
       </c>
       <c r="N23" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.16965187732957243</v>
       </c>
       <c r="O23" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.13488310636814477</v>
       </c>
       <c r="P23" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.23446117563940225</v>
       </c>
+    </row>
+    <row r="25" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4">
+        <v>903.74800000000005</v>
+      </c>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+    </row>
+    <row r="26" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4">
+        <v>208.774</v>
+      </c>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+    </row>
+    <row r="27" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+    </row>
+    <row r="28" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4">
+        <v>197.572</v>
+      </c>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+    </row>
+    <row r="29" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4">
+        <v>38.226999999999997</v>
+      </c>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+    </row>
+    <row r="30" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4">
+        <v>38.369999999999997</v>
+      </c>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+    </row>
+    <row r="31" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4">
+        <v>24.186</v>
+      </c>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+    </row>
+    <row r="32" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4">
+        <f>5.506+0.214</f>
+        <v>5.7200000000000006</v>
+      </c>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+    </row>
+    <row r="33" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4">
+        <f>237.746+14.124</f>
+        <v>251.87</v>
+      </c>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+    </row>
+    <row r="34" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4">
+        <f>11.877+14.36</f>
+        <v>26.237000000000002</v>
+      </c>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+    </row>
+    <row r="35" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4">
+        <v>8.5939999999999994</v>
+      </c>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+    </row>
+    <row r="36" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4">
+        <f>SUM(Q25:Q35)</f>
+        <v>1704.3230000000003</v>
+      </c>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+    </row>
+    <row r="38" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4">
+        <v>30.937999999999999</v>
+      </c>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+    </row>
+    <row r="39" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4">
+        <v>73.024000000000001</v>
+      </c>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+    </row>
+    <row r="40" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+    </row>
+    <row r="41" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4">
+        <v>158.81</v>
+      </c>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+    </row>
+    <row r="42" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4">
+        <f>9.513+160.092</f>
+        <v>169.60500000000002</v>
+      </c>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+    </row>
+    <row r="43" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4">
+        <v>14.978999999999999</v>
+      </c>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+    </row>
+    <row r="44" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4">
+        <f>4.193+0.189+1.358+0.099</f>
+        <v>5.8390000000000004</v>
+      </c>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+    </row>
+    <row r="45" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4">
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+    </row>
+    <row r="46" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4">
+        <v>423.62599999999998</v>
+      </c>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+    </row>
+    <row r="47" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4">
+        <v>824.48800000000006</v>
+      </c>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+    </row>
+    <row r="48" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4">
+        <f>SUM(Q38:Q47)</f>
+        <v>1704.3230000000001</v>
+      </c>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+    </row>
+    <row r="50" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4">
+        <f>187.226-P50-O50</f>
+        <v>187.226</v>
+      </c>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+    </row>
+    <row r="51" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4">
+        <f>17.983-P51-O51</f>
+        <v>17.983000000000001</v>
+      </c>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+    </row>
+    <row r="52" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4">
+        <f>+Q50-Q51</f>
+        <v>169.24299999999999</v>
+      </c>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>